--- a/biology/Mycologie/Terana_caerulea/Terana_caerulea.xlsx
+++ b/biology/Mycologie/Terana_caerulea/Terana_caerulea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Terana caerulea est une espèce de champignons corticioïdes de l'ordre des Polyporales et de la famille des Phanerochaetaceae. Elle se présente sous la forme d'une fine couche bleue veloutée sur la face inférieure de troncs et de branches d'arbres à feuilles caduques tombés sur le sol[1], dans les climats tempérés ou tropicaux du monde entier.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Terana caerulea est une espèce de champignons corticioïdes de l'ordre des Polyporales et de la famille des Phanerochaetaceae. Elle se présente sous la forme d'une fine couche bleue veloutée sur la face inférieure de troncs et de branches d'arbres à feuilles caduques tombés sur le sol, dans les climats tempérés ou tropicaux du monde entier.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Pulcherricium caeruleum (Lam.) Parmasto 1968
 Athelia caerulea (Lam.) Chevall. 1826
